--- a/web/registro_semanal_completo.xlsx
+++ b/web/registro_semanal_completo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniela/Documents/REPOSITORIOS GITHUB/E-Moviliza-dashboard/web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270238F1-3878-8840-9B29-0209ACEDF061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755E651F-C3DA-E444-A132-14B5831861BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25660" yWindow="660" windowWidth="25380" windowHeight="26300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,8 +94,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -120,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -143,17 +144,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -163,10 +153,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E349"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="G330" sqref="G330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6387,13 +6375,13 @@
         <v>7</v>
       </c>
       <c r="C348">
-        <v>0</v>
+        <v>21.8</v>
       </c>
       <c r="D348">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="E348">
-        <v>0</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
@@ -6420,16 +6408,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:D15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -6448,7 +6436,7 @@
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6507,10 +6495,10 @@
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6555,10 +6543,10 @@
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6617,10 +6605,10 @@
       <c r="D15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6665,6 +6653,9 @@
       <c r="D18">
         <v>1089.06</v>
       </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
